--- a/Internacional/Rango proyecciones.xlsx
+++ b/Internacional/Rango proyecciones.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,16 +30,25 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ba9d7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,12 +56,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00ffffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="00ffffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="00ffffff"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00ffffff"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,29 +471,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Venta plan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stock planta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Chile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Centro Agua</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Oficina</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Almacen oficina</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Pesimista Precio</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Optimista Precio</t>
         </is>
       </c>
     </row>
@@ -482,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,29 +537,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Venta plan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stock planta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Chile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Centro Agua</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Oficina</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Almacen oficina</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Pesimista Precio</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Optimista Precio</t>
         </is>
       </c>
     </row>
@@ -528,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,29 +603,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Venta plan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stock planta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Chile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Centro Agua</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Oficina</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Almacen oficina</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Pesimista Precio</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Optimista Precio</t>
         </is>
       </c>
     </row>
@@ -574,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,29 +669,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Venta plan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stock planta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Chile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Centro Agua</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Oficina</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Almacen oficina</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Pesimista Precio</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Optimista Precio</t>
         </is>
       </c>
     </row>
@@ -620,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,29 +735,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Venta plan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stock planta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Chile</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Centro Agua</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Oficina</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Almacen oficina</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Pesimista Precio</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Optimista Precio</t>
         </is>
       </c>
     </row>

--- a/Internacional/Rango proyecciones.xlsx
+++ b/Internacional/Rango proyecciones.xlsx
@@ -7,12 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Agro Mexico" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Agrosuper Brasil" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Exportacion Directa" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Agro Sudamerica" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Agrosuper Asia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Africa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Agro Sudamerica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Agrosuper Asia" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Agrosuper Brasil" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Exportacion Directa" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,14 +443,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Venta plan</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stock planta</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Chile</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Centro Agua</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Oficina</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Almacen oficina</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pesimista Proy.</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Optimista. Proy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1022709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GO PpPna 57@ Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>23994.76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -462,59 +543,1833 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venta plan</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Stock planta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Puerto Chile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Centro Agua</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Puerto Oficina</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Almacen oficina</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1010877</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PO Molleja Mrps@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1011042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PO Pta Espinaz@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1011290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PO Pch Piel@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>23994.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1011421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PO Ppa Esp 50 Pim@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>911016.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1011558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PO Ppa Esp@ 2 blo x 10k Cj AS</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>863199.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1012207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PO Ctre Mrps@ Bo 12x1k Cj AS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1012208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GA S/m@ Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1012283</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PO Pana S/Corazón@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1012552</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PO PchDeh Random@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>70050</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1012556</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PO CDM 14% proteina@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>192098.54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1012626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PO Tru Lar@ NNII Bo Cj 15k AS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1012719</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PO Ppa Esp@ 2 Blox10kg CJ AS SD</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>636147.4300000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1012744</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PO Pch Deh NMr@SD Cj 20kg AS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>143929.05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1012778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PO Corazón@ Placa Cj 19kg SD</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1012819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PO Ppa Esp@Cf Cj AS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1020017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GO Chu Ctro@ Fi Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>53726.83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1020086</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GO Lom Ctro 27 S/f@ Va Cj t-f AS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>71951.94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1020339</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GO Lom Tocino@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>23995.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1020352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GO Cue 20@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1020367</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GO Gord Lom Tocino@ Cj t-f AS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>179822.97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1020412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GO Cne Long@ Cj t-f AS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>48006.15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1020660</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GO PernilP@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>23995.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1020848</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GO Lom Ctro 27@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>186972.64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1020869</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GO Cos 79@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>47990.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1020886</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GO Panc Tecl Nor@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>45003.28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1020925</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GO Grasa Forro Pna Limp@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>23977.88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1020944</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GO PpPna 59@ Fi Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>268990.64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1021023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GO Gord rebaje@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>167455.46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1021039</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GO Cue Papda CP@ Cj 20k bca AS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>47969.72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1021077</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GO Gord chic@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1021078</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GO Triming 80/20@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>190913.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1021082</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GO Triming 70/30@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1021085</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GO Gord Esp@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20833.45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1021092</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GO Triming 85/15@ Cj t-f 20k AS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>95782.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1021101</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GO Corazón Partido@ Cj t-f 20k AS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>14951.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1021105</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GO Pulmon@ Cj 20k bca AS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>47795.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1021106</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GO Pana S/Corazón@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>71270.87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1021156</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GO Hso Pecho@ Cj Lom Vet TJ</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1021187</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GO Cue Back@ Cj 20k t-f AS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>23958.16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1021279</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GO Hso Pecho@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1021385</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GO Cue granel Esp CC@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>284434.52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1021433</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GO PpPna 59@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1021596</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GO Cue granel Esp CC@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1021622</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GO BB Ribs 20-24 Oz@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1021976</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GO PpPal 77@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>119825.9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1022047</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GO Triming Panc@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>17925.51</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1022102</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GO Pecho S/cue K@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>9519.99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1022149</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GO Plancha Rebaje Ent@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1022150</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>GO Gord chic@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>167877.63</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1022196</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GO Forro Pal@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>59814.63</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1022273</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GO Grasa Forro Pna Limp@ Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>12000.85</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1022290</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GO Lom Tocino S/cue@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>11994.75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1022389</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>GO Cue 20@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1022409</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>GO Tripa s/Cal# Bidon AS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>23940</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1022709</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>GO PpPna 57@ Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>563705.58</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1022781</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GO Tripa Calib 32/35# Bo Bidon AS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5462.1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1022782</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>GO Tripa Calib 35/38# Bo Bidon AS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9144</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1022783</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>GO Tripa Calib 38/40# Bo Bidon AS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>15480</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1022842</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GO Triming Lom@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5301.86</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1022847</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>GO Cne Falda Pan@ CJ 20k AS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>9489.65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1022855</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GO Grasa Forro Pal@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1022870</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GO Patas@ Cj 20 kg AS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1022920</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GO Gord Rebaje@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>11145.25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1022921</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GO Gord Chic@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>23278.27</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1022923</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>GO Gord Lom Tocino@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>12017.03</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1022924</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>GO Lom Tocino@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>70657.58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1023090</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>GO Panc S/cue S/h@ Cj Panc 16k AS</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>7413.04</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1023126</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>GO Reco 90/10 @ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1023319</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>GO Reco 90/10 @ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1023334</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cue granel Esp CC@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>23942</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1023355</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>GO Pulmon@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>29992.07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1023391</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GO Triming 90/10@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>23360</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1023400</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GO Pna S/Hso C/Cue F (7-8Kg)@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>8979.799999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1023417</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>GO Pna S/Hso C/Cue F (8-9Kg)@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>7095.32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1023420</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GO PpPna 59@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1023433</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GO Papda Cab@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>139155.69</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1023436</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GO Manos@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>23920</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1023454</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GO Bazo@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1016.83</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1030498</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PV Contre@ Bo Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1030506</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PV PechDeh S/p@ Bo Cj 20k SO</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>10680</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1030515</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Muestra de pavo congelada</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1030720</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PV Piel Tru@ Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>24001.03</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1030773</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PV Pch Filete 1 kg @Bo CJ 14Kg AS</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1030792</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PV Fil C/ten MA NMr@ Cj 15 kg AS</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>51420</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1030816</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PV Tru Ala@ Ex Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>24007.65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1030817</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PV Tru Larg@ Bo Cj 15k AS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>168031.25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1030821</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PV PchDeh S/p c/f MA@ Cj 15k AS</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Elaborado</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1100408</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Nugg Pollo Uru@ Film 2.5k SH</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -528,59 +2383,753 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venta plan</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Stock planta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Puerto Chile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Centro Agua</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Puerto Oficina</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Almacen oficina</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1012612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PO Ppa Esp Blo@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1106641.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1020660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GO PernilP@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>23981.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1020860</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GO Lom Vet@ Cj 12k AK</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>131941.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1020861</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GO Lom Vet@ Cj 12k TJ</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>131700.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1020904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GO Panc C/cue@ Cj Panc 230 TJ</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>44009.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1020905</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GO Panc C/cue@ Cj Panc 230 AK</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>43999.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1021012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GO Papda K@ Cj 20k AK</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>66024.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1021045</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GO PernilM C/M@ Cj 15k AK</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>22010.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1021046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GO PernilM C/M@ Cj 15k TJ</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>21991.06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1021149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GO Tira Hso Ctro@ Cj 20k TJ</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1021150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GO Tira Hso Ctro@ Cj 20k AK</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1021151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GO Hso Cogote@ Bo Cj 20k TJ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1021152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GO Hso Cogote@ Bo Cj 20k AK</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1021156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GO Hso Pecho@ Cj Lom Vet TJ</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1021204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GO Lom Tocino@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1021470</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GO PernilM@ Cj 20k AK</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>21951.03</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1021664</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GO Pecho S/cue K@ Cj 20k TJ</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>66359.19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1021665</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GO Pecho S/cue K@ Cj 20k AK</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>87999.92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1022182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GO BB Ribs 20-24 oz@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1022607</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GO Platead Lom TF@ Cj 10k AK (TS)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>43844.46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1022885</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GO Panc S/cue@ Cj Panc TJ</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>594318.67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1022887</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GO Panc S/cue@ Cj Panc AK</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>242125.66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1022930</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GO Panc S/cue Hem@ Cj Panc TJ AS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>198090.11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1023037</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GO Panc S/cue@ Cj Panc 16k AS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>88023.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1023038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GO Lom Vet@ Cj 8k AS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>109744.84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1023090</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GO Panc S/cue S/h@ Cj Panc 16k AS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-95.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1023144</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GO Papda C/Cue granel@ Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>47346.39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1023283</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GO Grasa Chaleco@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>96132.66</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1023326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GO Corazón Partido@ Cj 10k AS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1023372</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GO Lom Ctro 27@ Fi Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1023397</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GO Gord Esp@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>24011.49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1023435</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GO Cab Ent@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>23995.52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1023438</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GO Pana S/Corazón@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1030535</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PV Tru Larg MA@ Bo Cj SO</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>43999.59</v>
       </c>
     </row>
   </sheetData>
@@ -594,59 +3143,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venta plan</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Stock planta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Puerto Chile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Centro Agua</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Puerto Oficina</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Almacen oficina</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1011560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PO Corazón@ Bo Cj 18k AS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>22410</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1012362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PO Corazon@ Cj 18k AS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>22374</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1012674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PO Corazon@Pla Cj 19k</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>23206.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1021864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GO Cue Papda CP@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>23189.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1022217</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GO Lom Tocino@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>232223.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1022273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GO Grasa Forro Pna Limp@ Bo Cj AS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>47976.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1023329</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GO Cue Papda CP@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>23021.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1023334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cue granel Esp CC@ Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>165846.69</v>
       </c>
     </row>
   </sheetData>
@@ -660,125 +3383,1053 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venta plan</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Stock planta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Puerto Chile</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Centro Agua</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Puerto Oficina</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Almacen oficina</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Pesimista Proy.</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Optimista. Proy.</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Venta plan</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stock planta</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Puerto Chile</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Centro Agua</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Puerto Oficina</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Almacen oficina</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pesimista Proy.</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Optimista. Proy.</t>
-        </is>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1020105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GO Lom Tecla@ Cj Lom Ctro JP</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>85241.28999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1020110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GO MM Loin L@ Cj 12k AP</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>306165.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1020284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GO Posta Negra 3P T@ Va Cj t-f JP</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>11069.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1020326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GO PpPal Pim@ Cj AP</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1020589</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GO MM Loin S@ Fi Cj 12k AP</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>145035.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1020592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GO Lom Vet &gt;2.0@ Fi Cj Lom Vet AP</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>219221.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1020620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GO Lom Vet &lt;2.0@ Fi Cj AP</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>55055.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1020636</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GO File C/cab@ Va Cj 10k AP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>24885</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1020637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GO Panc Tec S/cue@ Fi Cj ch AP</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>335984.37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1020662</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GO Ganso C/asto 3P@ Va Cj t-f AP</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>25128.41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1020664</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GO Ganso C/asto C/abas S/g@ Va Cj JP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>24570.26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1020665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GO Posta Rosada 3P@ Va Cj t-f AP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>12040.77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1020681</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GO MM Loin D@ Fi Cj 12k AP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>13358.57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1020704</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GO File N@ Va Cj File AP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1020715</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GO Panc Tec C/cue@ Fi Cj Panc AP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2026.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1020731</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GO Panc S/tec/cue I@ Fi Cj Panc 4s AP</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>28035</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1020758</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GO Lom Vet S/g@ Va Cj ch AP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7604.73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1020774</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GO Malaya Japon@ Va Cj JP</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1020802</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GO Panc S/tec N@ Fi Cj 20k AP</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>35821.55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1020810</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GO Recto@ Cj File AP</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1020914</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GO Panc Lam 2.5mm@ Cj ch AP</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1020990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GO Ganso S/g S/abst DA@ Cj 12k AP</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5974.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1020991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GO Asiento C/g DA@ Cj 12k JP</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>6083.23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1021136</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GO Tráquea@ Cj Lom Ctro AP</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1021533</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GO Panc Mit@ Va Cj 20k AP</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9991.58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1021603</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GO MM Loin L (MC4-5)@ Fi Cj ch JP</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1021609</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GO File C/cab@ IWP Cj 10k SC</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>6707.35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1022313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GO CC Loin T@ Fi Cj AP</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2052.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1022326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GO CC Loin L (S/T)@ Fi Cj AP</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>24915.89</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1022346</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GO PpPal 1P Ex@ Bo AP</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10546.6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1022370</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GO MM Loin LL (29-32 VP)@ Bo Cj AP</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>39836.95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1022371</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GO Panc S/tec SP@ Fi Cj AP</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4480.34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1022472</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GO Lom Ctro S/Tecla(OY)Mit@ Cj Tf 20k AP</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1022499</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GO Lom Vet Mit@ 4 Bo Cj 10k AP</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>47453.68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1022587</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GO CC Loin L (S/T) 45@ Fi Cj AP</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3002.22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1022600</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GO Lom Vet 2 a 2,3k@ Fi Verd Cj AP</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8079.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1022664</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GO CC Loin L (S/T) (DF)@ Fi Cj AP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>76769.11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1022901</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GO Panc Tec S/Cue L@ Fi CJ Ch AP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1022931</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GO File C/cab 6x1@ VP Cj AP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>14498.81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1022987</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GO Lom Tocino@ Bo Cj 20k AP</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1023055</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GO Lom Vet M@ Fi Cj Lom Vet AP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5062.98</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1023163</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GO Lom Vet &gt;2.0@ Fi Cj 8k AP</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>29972.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1023194</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GO Cne Falda Panc@ Bo Cj AP</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20354.94</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1023349</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GO Lom Tecla VP@ Cj Lom Ctro</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2505.15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1023350</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Lom Vet &gt;2.0@ VP Cj Lom Vet AP</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>30160.27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1023351</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GO Panc S/tec L @VP Cj AP</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1023352</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GO Panc Tec S/cue@ R VP Cj ch AP</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>83092.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1023419</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GO Lom Tocino@ Bo Cj 20k AP</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Cerdo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1023457</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>GO Cordon Lom@ Bo Cj 20k AS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
